--- a/biology/Biochimie/Leucotriène_E4/Leucotriène_E4.xlsx
+++ b/biology/Biochimie/Leucotriène_E4/Leucotriène_E4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leucotri%C3%A8ne_E4</t>
+          <t>Leucotriène_E4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le leucotriène E4 (LTE4) est un composé biochimique de la famille des leucotriènes dérivé du leucotriène D4. Contrairement à ce dernier et au leucotriène C4, il est relativement stable et s'accumule dans les gaz expirés, dans le plasma sanguin et dans l'urine, ce qui en fait le principal leucotriène à cystéinyle présent dans les fluides biologiques[2]. Il est produit par plusieurs types de leucocytes, notamment les éosinophiles, les mastocytes, les macrophages tissulaires et les basophiles ; il est également produit dans les thrombocytes (plaquettes sanguines) adhérant aux neutrophiles[3].
+Le leucotriène E4 (LTE4) est un composé biochimique de la famille des leucotriènes dérivé du leucotriène D4. Contrairement à ce dernier et au leucotriène C4, il est relativement stable et s'accumule dans les gaz expirés, dans le plasma sanguin et dans l'urine, ce qui en fait le principal leucotriène à cystéinyle présent dans les fluides biologiques. Il est produit par plusieurs types de leucocytes, notamment les éosinophiles, les mastocytes, les macrophages tissulaires et les basophiles ; il est également produit dans les thrombocytes (plaquettes sanguines) adhérant aux neutrophiles.
 </t>
         </is>
       </c>
